--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_ManageNetwork.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_ManageNetwork.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>DeviceName</t>
   </si>
@@ -60,30 +60,9 @@
     <t>null</t>
   </si>
   <si>
-    <t>8ef01</t>
-  </si>
-  <si>
     <t>InterfaceName</t>
   </si>
   <si>
-    <t>883784</t>
-  </si>
-  <si>
-    <t>Device87475.ia.colt.net</t>
-  </si>
-  <si>
-    <t>Cisco 1760</t>
-  </si>
-  <si>
-    <t>La Louvière</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>BE_7110_RUE DE L'YSER_260_G_IT</t>
-  </si>
-  <si>
     <t>FMC_column</t>
   </si>
   <si>
@@ -117,7 +96,25 @@
     <t>APT_NonVoiceService</t>
   </si>
   <si>
-    <t>10.23.45.67</t>
+    <t>10.1.1.195</t>
+  </si>
+  <si>
+    <t>Cisco 12008</t>
+  </si>
+  <si>
+    <t>JdhquA5</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Chittagong Airport</t>
+  </si>
+  <si>
+    <t>8726147324623547234</t>
+  </si>
+  <si>
+    <t>2049</t>
   </si>
 </sst>
 </file>
@@ -473,7 +470,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,8 +484,8 @@
     <col min="7" max="7" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -526,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -562,36 +559,36 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -600,57 +597,57 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -659,46 +656,46 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_ManageNetwork.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_ManageNetwork.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>DeviceName</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>APT_NonVoiceService</t>
   </si>
   <si>
@@ -115,13 +112,37 @@
   </si>
   <si>
     <t>2049</t>
+  </si>
+  <si>
+    <t>url for the product</t>
+  </si>
+  <si>
+    <t>10.15.12.120</t>
+  </si>
+  <si>
+    <t>10.1.12.189</t>
+  </si>
+  <si>
+    <t>Cisco 12012</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>LONDON COLNEY</t>
+  </si>
+  <si>
+    <t>UK_AL2-1JG_HERTFORDSHIRE BUSINESS CENTRE_X_G_COMMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +163,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -176,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -186,6 +219,11 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,7 +508,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +564,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -580,15 +618,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -596,29 +634,29 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>21</v>
@@ -644,10 +682,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -656,28 +694,28 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>21</v>

--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_ManageNetwork.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_ManageNetwork.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="ManageNetwork" sheetId="2" r:id="rId1"/>
+    <sheet name="Unique Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>DeviceName</t>
   </si>
@@ -136,6 +137,15 @@
   </si>
   <si>
     <t>UK_AL2-1JG_HERTFORDSHIRE BUSINESS CENTRE_X_G_COMMS</t>
+  </si>
+  <si>
+    <t>Columns for which unique data to be provided</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Based on the device name, all other column data should be provided from Application</t>
   </si>
 </sst>
 </file>
@@ -177,7 +187,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +206,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -209,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -225,6 +241,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +526,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,31 +550,12 @@
     <col min="17" max="17" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="9.140625" style="1"/>
-    <col min="41" max="41" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="59" width="9.140625" style="1"/>
-    <col min="60" max="60" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="30.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="26" width="9.140625" style="1"/>
+    <col min="27" max="27" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -566,7 +565,7 @@
       <c r="B1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -575,46 +574,46 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -740,4 +739,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>